--- a/Team-Data/2013-14/3-20-2013-14.xlsx
+++ b/Team-Data/2013-14/3-20-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -780,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -980,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1597,7 +1664,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1615,19 +1682,19 @@
         <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
         <v>14.5</v>
@@ -1648,40 +1715,40 @@
         <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>
@@ -1693,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1708,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1857,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1899,7 +1966,7 @@
         <v>25</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2072,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2251,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2325,7 +2392,7 @@
         <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
         <v>9.199999999999999</v>
@@ -2334,16 +2401,16 @@
         <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
@@ -2355,7 +2422,7 @@
         <v>45.2</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
         <v>15.4</v>
@@ -2367,16 +2434,16 @@
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
         <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
         <v>4.7</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2403,10 +2470,10 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2421,10 +2488,10 @@
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2436,19 +2503,19 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.676</v>
+        <v>0.672</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L12" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2537,37 +2604,37 @@
         <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
         <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.7</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2588,13 +2655,13 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>26</v>
@@ -2806,7 +2873,7 @@
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,37 +3663,37 @@
         <v>35.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L18" t="n">
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
         <v>21.4</v>
@@ -3638,25 +3705,25 @@
         <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,28 +3744,28 @@
         <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP18" t="n">
         <v>23</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3784,19 +3851,19 @@
         <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="n">
         <v>0.778</v>
@@ -3805,19 +3872,19 @@
         <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T19" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>13.5</v>
       </c>
       <c r="W19" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
@@ -3826,19 +3893,19 @@
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB19" t="n">
         <v>106.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3865,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3883,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3895,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3913,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>16</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4265,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -4306,58 +4373,58 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.735</v>
+        <v>0.731</v>
       </c>
       <c r="H22" t="n">
         <v>48.1</v>
       </c>
       <c r="I22" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
         <v>7.9</v>
       </c>
       <c r="M22" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q22" t="n">
         <v>0.804</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
         <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4369,7 +4436,7 @@
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
         <v>22.2</v>
@@ -4378,22 +4445,22 @@
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>25</v>
@@ -4405,13 +4472,13 @@
         <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4426,19 +4493,19 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4617,10 +4684,10 @@
         <v>19</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4763,13 +4830,13 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>21</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.652</v>
+        <v>0.647</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,16 +5119,16 @@
         <v>39.4</v>
       </c>
       <c r="J26" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.375</v>
@@ -5079,13 +5146,13 @@
         <v>12.7</v>
       </c>
       <c r="S26" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V26" t="n">
         <v>13.9</v>
@@ -5094,7 +5161,7 @@
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
@@ -5106,13 +5173,13 @@
         <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5876,7 +5943,7 @@
         <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
         <v>35</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.515</v>
+        <v>0.522</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N31" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O31" t="n">
         <v>15.5</v>
@@ -5983,10 +6050,10 @@
         <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
         <v>31.4</v>
@@ -6019,10 +6086,10 @@
         <v>100.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6040,10 +6107,10 @@
         <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>17</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-20-2013-14</t>
+          <t>2014-03-20</t>
         </is>
       </c>
     </row>
